--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76955.80878673127</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76955.80878673127</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265487737.061099</v>
+        <v>46910462.44592503</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13518.97783599533</v>
+        <v>1130258.452290055</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25929.69723753882</v>
+        <v>2056663.82244848</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38329.26798192375</v>
+        <v>2983069.192606904</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50992.49503383457</v>
+        <v>3908546.043546286</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63655.7220857454</v>
+        <v>4834022.894485669</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76318.94524323683</v>
+        <v>5759499.745425051</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88982.17229514765</v>
+        <v>6684976.596364429</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101645.3993470585</v>
+        <v>7610453.447303805</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>114308.6263989694</v>
+        <v>8535930.298243182</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126971.8534508802</v>
+        <v>9461407.149182556</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>139635.0805027911</v>
+        <v>10386884.00012193</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152298.307554702</v>
+        <v>11312360.85106132</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164961.5346066128</v>
+        <v>12237837.7020007</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>177624.7616585236</v>
+        <v>13163314.5529401</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>190287.9887104346</v>
+        <v>14088791.40387949</v>
       </c>
     </row>
   </sheetData>
